--- a/data/eloR_results_1_10.xlsx
+++ b/data/eloR_results_1_10.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3640" yWindow="1540" windowWidth="14820" windowHeight="10880" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="3580" yWindow="1540" windowWidth="14820" windowHeight="10880" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2862,7 +2862,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
       <selection activeCell="C2" sqref="C2:C11"/>
     </sheetView>
   </sheetViews>
@@ -3240,7 +3240,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
